--- a/Descriptivd_data.xlsx
+++ b/Descriptivd_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D68C50C2-AC19-3E45-9A2F-F9578AC7C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B27F03-696E-CB43-A32B-83B4C5C27F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C2FD4838-DF82-5C4B-85E6-1C970AE13F6D}"/>
   </bookViews>
@@ -36,27 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>Wald</t>
   </si>
   <si>
-    <t>(mean,scal)</t>
-  </si>
-  <si>
-    <t>(1,0.5),(1,2),</t>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>d.f. of numerator</t>
+  </si>
+  <si>
+    <t>d.f. of denominator</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>s.d.</t>
+  </si>
+  <si>
+    <t>Wiebull</t>
+  </si>
+  <si>
+    <t>shap</t>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +106,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,40 +469,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D617339-A8BB-654B-9BA9-823F67FE7C02}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>